--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3618686.399184996</v>
+        <v>3694216.068849798</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>126.1512633158929</v>
+        <v>283.7925937715617</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>33.27286869437564</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>29.41204342723536</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>205.8618052866819</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>28.58836780397655</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>126.3298627762798</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>264.1949060168083</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>322.8981276994363</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>123.6064608052457</v>
+        <v>187.5766315601733</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274076</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>78.63022410830824</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>110.4175462382497</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498027</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6519788371604</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>127.7178027211456</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051995</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498028</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>86.18768101996885</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274061</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>104.1263453527957</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>49.45598643312739</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>209.4552226741792</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2606,10 +2608,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560558</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>155.3791132058516</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>237.6821551249389</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>90.92973725360396</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>29.18937547120882</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238282</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365912</v>
+        <v>285.9888589191006</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>60.54139430663925</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675363</v>
+        <v>116.1199858793462</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>28.7344824107295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>44.74041742066716</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238282</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3952,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>65.57092839063824</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>224.9333101817131</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750046</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>197.0030025180839</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1490.978909181595</v>
+        <v>1134.473993239633</v>
       </c>
       <c r="C2" t="n">
-        <v>1490.978909181595</v>
+        <v>765.5114762992212</v>
       </c>
       <c r="D2" t="n">
-        <v>1490.978909181595</v>
+        <v>765.5114762992212</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y2" t="n">
-        <v>1490.978909181595</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>381.6292235663332</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>381.6292235663332</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>381.6292235663332</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>381.6292235663332</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>443.7353612255621</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>443.7353612255621</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>858.4397953655689</v>
       </c>
       <c r="C5" t="n">
-        <v>808.0839286340174</v>
+        <v>489.4772784251572</v>
       </c>
       <c r="D5" t="n">
-        <v>808.0839286340174</v>
+        <v>489.4772784251572</v>
       </c>
       <c r="E5" t="n">
-        <v>422.2956760357732</v>
+        <v>103.6890258269129</v>
       </c>
       <c r="F5" t="n">
-        <v>415.3501752865697</v>
+        <v>96.74352507770946</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>82.82012101630036</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>82.82012101630036</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1245.039635429691</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1176.876864157142</v>
+        <v>1284.970060705655</v>
       </c>
       <c r="C8" t="n">
-        <v>1176.876864157142</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>1176.876864157142</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>791.0886115588976</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>380.10270676929</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.476704221264</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y8" t="n">
-        <v>1563.476704221264</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.200144220494</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W10" t="n">
-        <v>603.2739732920446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>603.2739732920446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.4813941485145</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636254</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.5941600866661</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>438.5941600866661</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119729</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227927</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169058</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W13" t="n">
-        <v>620.2426249169058</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X13" t="n">
-        <v>620.2426249169058</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="Y13" t="n">
-        <v>620.2426249169058</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5291,19 +5293,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5321,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.785243411008</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555207</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619849</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181194</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X16" t="n">
-        <v>441.9005583181194</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y16" t="n">
-        <v>221.1079791745893</v>
+        <v>226.2249729967965</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5503,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
@@ -5510,16 +5512,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5537,13 +5539,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>2786.879505108312</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>3033.644633014776</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>3340.964766294738</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>3973.880983602626</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>4253.421048821323</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>503.3281774570627</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>334.3919945291558</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>184.2753551168201</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>184.2753551168201</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>184.2753551168201</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>184.2753551168201</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>731.31772835508</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>503.3281774570627</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>503.3281774570627</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>570.0299571250966</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>816.7950850315608</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M21" t="n">
-        <v>1124.115218311523</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.977845975555</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>4334.963857167329</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>4166.027674239423</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>4015.911034827087</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746783</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746783</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>4555.756436310859</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>4555.756436310859</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>4334.963857167329</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,43 +5974,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1448.960728706259</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1249.040718621811</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1249.040718621811</v>
+        <v>964.135741824787</v>
       </c>
       <c r="U25" t="n">
-        <v>959.9120798353694</v>
+        <v>675.0071030383453</v>
       </c>
       <c r="V25" t="n">
-        <v>705.2275916294825</v>
+        <v>420.3226148324586</v>
       </c>
       <c r="W25" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="X25" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383382</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,13 +6211,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,10 +6226,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845922</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6382,7 +6384,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6391,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6485,28 +6487,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6542,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765191</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>619.9540936663868</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>619.9540936663868</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>528.105874218302</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028589</v>
@@ -6701,16 +6703,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6728,22 +6730,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6779,22 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035279</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387593</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011512</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952642</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583034</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028589</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028589</v>
+        <v>675.2581065529677</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,16 +6940,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6962,25 +6964,25 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2499.085913569259</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>2648.155597771318</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766204</v>
+        <v>3262.052667528207</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>3569.372800808169</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>3899.235428472202</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>4568.699189774861</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557071</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>420.3226148324553</v>
+        <v>641.8707282937983</v>
       </c>
       <c r="C37" t="n">
-        <v>420.3226148324553</v>
+        <v>472.9345453658914</v>
       </c>
       <c r="D37" t="n">
-        <v>420.3226148324553</v>
+        <v>472.9345453658914</v>
       </c>
       <c r="E37" t="n">
-        <v>420.3226148324553</v>
+        <v>472.9345453658914</v>
       </c>
       <c r="F37" t="n">
-        <v>420.3226148324553</v>
+        <v>326.044597867981</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903955</v>
+        <v>326.044597867981</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383386</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035279</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247844</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383424</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324553</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>420.3226148324553</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X37" t="n">
-        <v>420.3226148324553</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y37" t="n">
-        <v>420.3226148324553</v>
+        <v>823.519193124038</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,22 +7174,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899126</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7257,10 +7259,10 @@
         <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
         <v>1736.59991596447</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>237.7764125461461</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>237.7764125461461</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>237.7764125461461</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.497233179936</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557901</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473454</v>
+        <v>1142.728816206324</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687011</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="V40" t="n">
-        <v>755.1831334811244</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="W40" t="n">
-        <v>465.7659634441636</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="X40" t="n">
-        <v>237.7764125461461</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y40" t="n">
-        <v>237.7764125461461</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7418,19 +7420,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7497,10 +7499,10 @@
         <v>796.3635653766204</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
         <v>1808.163466324677</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.1954542207687</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U43" t="n">
-        <v>1008.977584262316</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V43" t="n">
-        <v>1008.977584262316</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="W43" t="n">
-        <v>1008.977584262316</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="X43" t="n">
-        <v>780.9880333642989</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y43" t="n">
-        <v>560.1954542207687</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7627,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7643,7 +7645,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7655,40 +7657,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>339.750213104625</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916675</v>
+        <v>4033.668348055211</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916675</v>
+        <v>4033.668348055211</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916675</v>
+        <v>4033.668348055211</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916675</v>
+        <v>3885.755254472818</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T46" t="n">
-        <v>4520.375241843982</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U46" t="n">
-        <v>4231.24660305754</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="V46" t="n">
-        <v>3976.562114851653</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="W46" t="n">
-        <v>3687.144944814692</v>
+        <v>4261.657898953228</v>
       </c>
       <c r="X46" t="n">
-        <v>3459.155393916675</v>
+        <v>4033.668348055211</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916675</v>
+        <v>4033.668348055211</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142013</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814589</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>306.1147370139946</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445214</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>159.0121003135237</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9647,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.0374492781462</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="M27" t="n">
-        <v>124.3400780863225</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>96.03744927814603</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>124.3400780863215</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>96.0374492781462</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>180.0237016735865</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>180.0237016735864</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>52.49733361305215</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445216</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>69.98524890990412</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>108.1671071138451</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.18000134477693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>38.77576574223201</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>62.72614734756728</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>182.3966529837952</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.50836597066539</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>77.06777566241172</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>63.20554014624315</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>48.84084321165207</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>127.6549160984908</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633778</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675363</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>192.3581855871806</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.534139417490394</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>105.9521741567385</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>32.79384248818995</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.584653352095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>117.6994802358398</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633778</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675363</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583894</v>
+        <v>176.8071436377221</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>220.6664240079391</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>27.2043331421149</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.3938331833846</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>89.51999581850708</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679007.2774849684</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679007.2774849685</v>
+        <v>679007.2774849684</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679007.2774849683</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703852.3075278754</v>
+      </c>
+      <c r="H2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="M2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="G2" t="n">
-        <v>703852.3075278755</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278762</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="O2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="J2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278762</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278763</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.3075278762</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278758</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.13223975501583e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>8.03928352459999e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,34 +26426,34 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
+        <v>15045.66962143919</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15045.66962143913</v>
+      </c>
+      <c r="J4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.66962143909</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.66962143898</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143897</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143898</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
         <v>15045.66962143909</v>
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90664.32265132183</v>
+        <v>-90664.32265132191</v>
       </c>
       <c r="C6" t="n">
         <v>499303.5565632227</v>
       </c>
       <c r="D6" t="n">
-        <v>499303.5565632227</v>
+        <v>499303.5565632225</v>
       </c>
       <c r="E6" t="n">
-        <v>71659.27548082336</v>
+        <v>71659.27548082374</v>
       </c>
       <c r="F6" t="n">
+        <v>596819.3119577201</v>
+      </c>
+      <c r="G6" t="n">
+        <v>596819.3119577195</v>
+      </c>
+      <c r="H6" t="n">
+        <v>596819.3119577197</v>
+      </c>
+      <c r="I6" t="n">
+        <v>596819.31195772</v>
+      </c>
+      <c r="J6" t="n">
+        <v>420396.0927651272</v>
+      </c>
+      <c r="K6" t="n">
+        <v>596819.3119577203</v>
+      </c>
+      <c r="L6" t="n">
+        <v>596819.3119577204</v>
+      </c>
+      <c r="M6" t="n">
+        <v>462018.296723883</v>
+      </c>
+      <c r="N6" t="n">
         <v>596819.3119577202</v>
       </c>
-      <c r="G6" t="n">
-        <v>596819.3119577197</v>
-      </c>
-      <c r="H6" t="n">
-        <v>596819.3119577206</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
         <v>596819.3119577202</v>
       </c>
-      <c r="J6" t="n">
-        <v>420396.0927651275</v>
-      </c>
-      <c r="K6" t="n">
-        <v>596819.3119577206</v>
-      </c>
-      <c r="L6" t="n">
-        <v>596819.3119577208</v>
-      </c>
-      <c r="M6" t="n">
-        <v>462018.2967238833</v>
-      </c>
-      <c r="N6" t="n">
-        <v>596819.3119577206</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>596819.3119577203</v>
-      </c>
-      <c r="P6" t="n">
-        <v>596819.3119577201</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26744,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541005</v>
@@ -26756,10 +26758,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541004</v>
@@ -26796,13 +26798,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>255.7791067563689</v>
+        <v>98.13777630070012</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>134.0369335646753</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>257.1109549093557</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>207.9223647341131</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>123.3429484408847</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>4.732187490914384</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>20.33532920387802</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>101.0779857541992</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>90.88604232135867</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>162.9165375313453</v>
+        <v>98.9463667764177</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.493267462176915e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.004910440574999e-13</v>
       </c>
     </row>
     <row r="26">
@@ -30001,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31837,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047525</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>724.9245949685502</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330526</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
@@ -35972,16 +35974,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>639.3093104120077</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349813</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>309.587538901463</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>616.5391140644617</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556565</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187487</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556563</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187486</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>483.6693559063409</v>
       </c>
       <c r="M27" t="n">
-        <v>434.7644551367889</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504664</v>
@@ -36926,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37157,13 +37159,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>429.232022676159</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556538</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718746</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>166.2502570412283</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
@@ -37397,13 +37399,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>378.4011515192544</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556538</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718746</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37558,7 +37560,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
@@ -37625,13 +37627,13 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>429.2814066296109</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>513.2182750715994</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556538</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718746</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.580930408112</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>406.4618263286126</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714619</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.580930408112</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>203.0727722009914</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,10 +38113,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3694216.068849798</v>
+        <v>3687199.053958089</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>283.7925937715617</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -715,10 +715,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>52.82290122762556</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>33.27286869437564</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28.58836780397655</v>
+        <v>129.1935566495322</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>162.5776147681365</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>264.1949060168083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>383.741428745805</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>187.5766315601733</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505273982</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>39.11561436815781</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.4175462382497</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>125.137161209159</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7178027211456</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051995</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>86.18768101996885</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274061</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836031</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>104.1263453527957</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836031</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>209.4552226741792</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>5.1077313359454</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.3791132058516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.92973725360396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>106.1850234365638</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3240,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>285.9888589191006</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274131</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>24.30197918502502</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>116.1199858793462</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>44.74041742066716</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,16 +3954,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>224.9333101817131</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>197.0030025180839</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1134.473993239633</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>765.5114762992212</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>765.5114762992212</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
         <v>471.9067899221776</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1521.073833303755</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>381.6292235663332</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>381.6292235663332</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>381.6292235663332</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>381.6292235663332</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>858.4397953655689</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C5" t="n">
-        <v>489.4772784251572</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="D5" t="n">
-        <v>489.4772784251572</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="E5" t="n">
-        <v>103.6890258269129</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="F5" t="n">
-        <v>96.74352507770946</v>
+        <v>198.3649279520081</v>
       </c>
       <c r="G5" t="n">
-        <v>82.82012101630036</v>
+        <v>184.4415238905991</v>
       </c>
       <c r="H5" t="n">
-        <v>82.82012101630036</v>
+        <v>184.4415238905991</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.50539369077</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1245.039635429691</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>1245.039635429691</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.1627947174721</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>218.1627947174721</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>218.1627947174721</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>218.1627947174721</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>218.1627947174721</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.1627947174721</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.970060705655</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1675.109392681467</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1284.970060705655</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.200144220494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5026,22 +5026,22 @@
         <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080546</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
@@ -5083,7 +5083,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188992</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>709.4512536188992</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>709.4512536188992</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5266,31 +5266,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5366,13 +5366,13 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>226.2249729967965</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="C16" t="n">
-        <v>226.2249729967965</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D16" t="n">
-        <v>226.2249729967965</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>226.2249729967965</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>226.2249729967965</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X16" t="n">
-        <v>447.0175521403266</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y16" t="n">
-        <v>226.2249729967965</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,37 +5527,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108312</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014776</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>3340.964766294738</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3973.880983602626</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.3281774570627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>334.3919945291558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>184.2753551168201</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>184.2753551168201</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>184.2753551168201</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>184.2753551168201</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>731.31772835508</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>503.3281774570627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.3281774570627</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,25 +5755,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5782,22 +5782,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4334.963857167329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4166.027674239423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>4015.911034827087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4660.934562929845</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4660.934562929845</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4555.756436310859</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4555.756436310859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4334.963857167329</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6016,22 +6016,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6074,19 +6074,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824787</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383453</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324586</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>208.7516828383382</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,10 +6205,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,10 +6217,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.1954542207687</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C28" t="n">
-        <v>560.1954542207687</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488384</v>
+        <v>980.8428919792033</v>
       </c>
       <c r="V28" t="n">
-        <v>898.7925182488384</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W28" t="n">
-        <v>898.7925182488384</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X28" t="n">
-        <v>898.7925182488384</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.8439190510085</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619851</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>909.3712637033474</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>619.9540936663868</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>619.9540936663868</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,61 +6691,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>675.2581065529677</v>
+        <v>785.4801130615103</v>
       </c>
       <c r="C34" t="n">
-        <v>675.2581065529677</v>
+        <v>616.5439301336035</v>
       </c>
       <c r="D34" t="n">
-        <v>675.2581065529677</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705745</v>
+        <v>466.4272907212677</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
         <v>359.1696912903951</v>
@@ -6855,19 +6855,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247865</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247865</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>964.1357418247865</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W34" t="n">
-        <v>675.2581065529677</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X34" t="n">
-        <v>675.2581065529677</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y34" t="n">
-        <v>675.2581065529677</v>
+        <v>967.1285778917501</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003442</v>
@@ -6925,25 +6925,25 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515098</v>
@@ -6952,7 +6952,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2499.085913569259</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2648.155597771318</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3262.052667528207</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3569.372800808169</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3899.235428472202</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774861</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557071</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.8707282937983</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C37" t="n">
-        <v>472.9345453658914</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="D37" t="n">
-        <v>472.9345453658914</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>472.9345453658914</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>326.044597867981</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>326.044597867981</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>1044.311772267568</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.311772267568</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.519193124038</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.59991596447</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1142.728816206324</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>853.6001774198821</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>853.6001774198821</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>564.1830073829216</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7426,22 +7426,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701562</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766204</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>447.8017392184324</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>447.8017392184324</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7663,34 +7663,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4033.668348055211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>4033.668348055211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>4033.668348055211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3885.755254472818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576119</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>4749.779469576119</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4460.650830789677</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4460.650830789677</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4261.657898953228</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4033.668348055211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4033.668348055211</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142013</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>414.5002179180839</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,16 +9014,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>176.7176547498455</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>306.1147370139946</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,10 +9722,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>234.4116509503166</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814625</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>96.03744927814603</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>124.3400780863215</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>180.0237016735865</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>159.0121003135241</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298197</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>180.0237016735866</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.1671071138451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>42.10965988946879</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>38.77576574223201</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>62.72614734756728</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>182.3966529837952</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>77.06777566241172</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>192.8130786476578</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.20554014624315</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.6549160984908</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>39.23602458636741</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0.534139417490394</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>124.3134938331873</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>32.79384248818995</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>176.8071436377221</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>27.2043331421149</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>89.51999581850708</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679007.2774849684</v>
+        <v>679007.2774849685</v>
       </c>
     </row>
     <row r="14">
@@ -26316,31 +26316,31 @@
         <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.307527876</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278754</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278762</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.307527876</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="K2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="L2" t="n">
         <v>703852.3075278761</v>
@@ -26349,10 +26349,10 @@
         <v>703852.3075278759</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.307527876</v>
       </c>
       <c r="P2" t="n">
         <v>703852.307527876</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.13223975501583e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8.03928352459999e-11</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143919</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26447,19 +26447,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26496,13 +26496,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-90664.32265132191</v>
       </c>
       <c r="C6" t="n">
-        <v>499303.5565632227</v>
+        <v>499303.5565632224</v>
       </c>
       <c r="D6" t="n">
-        <v>499303.5565632225</v>
+        <v>499303.5565632224</v>
       </c>
       <c r="E6" t="n">
-        <v>71659.27548082374</v>
+        <v>70684.68422110226</v>
       </c>
       <c r="F6" t="n">
-        <v>596819.3119577201</v>
+        <v>595844.7206979987</v>
       </c>
       <c r="G6" t="n">
-        <v>596819.3119577195</v>
+        <v>595844.7206979987</v>
       </c>
       <c r="H6" t="n">
-        <v>596819.3119577197</v>
+        <v>595844.7206979988</v>
       </c>
       <c r="I6" t="n">
-        <v>596819.31195772</v>
+        <v>595844.7206979987</v>
       </c>
       <c r="J6" t="n">
-        <v>420396.0927651272</v>
+        <v>419421.5015054054</v>
       </c>
       <c r="K6" t="n">
-        <v>596819.3119577203</v>
+        <v>595844.7206979985</v>
       </c>
       <c r="L6" t="n">
-        <v>596819.3119577204</v>
+        <v>595844.7206979988</v>
       </c>
       <c r="M6" t="n">
-        <v>462018.296723883</v>
+        <v>461043.7054641614</v>
       </c>
       <c r="N6" t="n">
-        <v>596819.3119577202</v>
+        <v>595844.7206979983</v>
       </c>
       <c r="O6" t="n">
-        <v>596819.3119577202</v>
+        <v>595844.7206979987</v>
       </c>
       <c r="P6" t="n">
-        <v>596819.3119577203</v>
+        <v>595844.7206979987</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26819,10 +26819,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>98.13777630070012</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>333.415037428428</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>134.0369335646753</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>123.3429484408847</v>
+        <v>22.73775959532901</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.732187490914384</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>101.0779857541992</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.496509910248619</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>98.9463667764177</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.493267462176915e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.004910440574999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047525</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>724.9245949685502</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>487.1420318003117</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>639.3093104120077</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>616.5391140644617</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556563</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187486</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>483.6693559063409</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341706</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>429.232022676159</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>166.2502570412283</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>429.2814066296109</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>406.4618263286126</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>366.1055152450488</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349766</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.0367344586608</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3687199.053958089</v>
+        <v>3692138.316807121</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.8229012276257</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>52.82290122762556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>129.1935566495322</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>214.6745513216756</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>132.9342137328509</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>15.11714581632465</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>383.741428745805</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686246</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273982</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>53.0696759268649</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.11561436815781</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>125.137161209159</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>139.3019489580196</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>97.79450565355923</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385039</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>5.1077313359454</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>106.1850234365638</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274131</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.30197918502502</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3714,13 +3714,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>29.3220157029459</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>107.2994477068551</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>107.2994477068551</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4375,7 +4375,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>882.8926947117852</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609.3508327416157</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C5" t="n">
-        <v>609.3508327416157</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>609.3508327416157</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>609.3508327416157</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>198.3649279520081</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>184.4415238905991</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>184.4415238905991</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>2090.166777909405</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>227.427697035952</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355886</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080546</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1348.33044553573</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1124.545030325236</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,13 +5263,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5281,13 +5281,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5360,16 +5360,16 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>503.3281774570622</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
         <v>208.7516828383384</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>934.5018059114255</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>679.8173177055387</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3177283550796</v>
+        <v>390.400147668578</v>
       </c>
       <c r="X16" t="n">
-        <v>503.3281774570622</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y16" t="n">
-        <v>503.3281774570622</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5509,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,16 +5594,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5755,16 +5755,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5977,10 +5977,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6016,10 +6016,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>865.3534128817969</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6247,28 +6247,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1493.756945976139</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1269.971530765645</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>980.8428919792033</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>726.1584037733164</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>436.7412337363558</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,10 +6457,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M30" t="n">
-        <v>1595.645765494011</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1925.508393158044</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>2205.048458376741</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>318.009670603816</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6724,7 +6724,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>785.4801130615103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>616.5439301336035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>466.4272907212677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1187.92115703528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>967.1285778917501</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2361.490124716568</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7362,10 +7362,10 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
         <v>614.6238123952637</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7739,16 +7739,16 @@
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9008,19 +9008,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>29.47535963978228</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>277.671796620806</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>127.646125010065</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.9802687929764</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>159.0121003135241</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>95.54579709134745</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>158.8051956154454</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>42.10965988946879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>146.9354034405578</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>188.7284926830318</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>192.8130786476578</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>39.23602458636741</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3134938331873</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>196.3876396860913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679007.2774849685</v>
+        <v>679007.2774849684</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="F2" t="n">
         <v>703852.3075278758</v>
       </c>
-      <c r="F2" t="n">
-        <v>703852.307527876</v>
-      </c>
       <c r="G2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="J2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="K2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="L2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="M2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26441,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,7 +26484,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90664.32265132191</v>
+        <v>-90664.32265132168</v>
       </c>
       <c r="C6" t="n">
-        <v>499303.5565632224</v>
+        <v>499303.5565632227</v>
       </c>
       <c r="D6" t="n">
-        <v>499303.5565632224</v>
+        <v>499303.5565632226</v>
       </c>
       <c r="E6" t="n">
-        <v>70684.68422110226</v>
+        <v>71561.81635485197</v>
       </c>
       <c r="F6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.852831748</v>
       </c>
       <c r="G6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="H6" t="n">
-        <v>595844.7206979988</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="I6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="J6" t="n">
-        <v>419421.5015054054</v>
+        <v>420298.633639155</v>
       </c>
       <c r="K6" t="n">
-        <v>595844.7206979985</v>
+        <v>596721.8528317483</v>
       </c>
       <c r="L6" t="n">
-        <v>595844.7206979988</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="M6" t="n">
-        <v>461043.7054641614</v>
+        <v>461920.8375979108</v>
       </c>
       <c r="N6" t="n">
-        <v>595844.7206979983</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="O6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="P6" t="n">
-        <v>595844.7206979987</v>
+        <v>596721.8528317481</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26752,7 +26752,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>99.10841501723556</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>333.415037428428</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>22.73775959532901</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>1.773769035982212</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>13.49974891371826</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>398.6670242044704</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.496509910248619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>120.1051426060688</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>180.0507982277215</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>526.9295015768304</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7395399415897</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37636,13 +37636,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>253.9933015780506</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37873,16 +37873,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>366.1055152450488</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>610.8663700188191</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
